--- a/biology/Zoologie/Cylindrophis_ruffus/Cylindrophis_ruffus.xlsx
+++ b/biology/Zoologie/Cylindrophis_ruffus/Cylindrophis_ruffus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cylindrophis ruffus ou Serpent à deux têtes est une espèce de serpents de la famille des Cylindrophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylindrophis ruffus ou Serpent à deux têtes est une espèce de serpents de la famille des Cylindrophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Indonésie à Sumatra, aux îles Riau, à Bangka, au Kalimantan, à Java, à Sulawesi et à Komodo ;
 en Malaisie ;
 en Thaïlande ;
@@ -548,12 +562,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serpent mesure de 70 à 100 cm de long. Le dessous de sa queue est rouge, queue qui rappelle la tête de serpent venimeux comme le bongare et lui vaut le surnom de serpent à deux têtes.
 Il est essentiellement fouisseur mais on peut le trouver dans les rizières et les marécages. 
 Il mange de petits serpents et des anguilles.
-C'est un serpent vivipare[2].
+C'est un serpent vivipare.
 </t>
         </is>
       </c>
@@ -582,10 +598,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On rencontre parfois cette espèce sous le nom de Cylindrophis rufus (avec un seul f), mais la graphie originale de Laurenti, 1768 comporte bien les deux f.
-La sous-espèce Cylindrophis ruffus burmanus[3] a été élevée au rang d'espèce par Amarasinghe et al., 2015[4].
+La sous-espèce Cylindrophis ruffus burmanus a été élevée au rang d'espèce par Amarasinghe et al., 2015.
 </t>
         </is>
       </c>
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Laurenti, 1768 : Specimen medicum, exhibens synopsin reptilium emendatam cum experimentis circa venena et antidota reptilium austriacorum, Vienna Joan Thomae, p. 1-217 (texte intégral).</t>
         </is>
